--- a/todo.xlsx
+++ b/todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\examen_rojo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Mr Rojo\cloud\projet-cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9609FEA4-DF74-4EE1-B599-253F807AA187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E1986-FBAF-4A48-BFC8-A3012511E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
   <si>
     <t>Statut</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Haute</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Base de Données</t>
@@ -258,10 +255,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
@@ -343,7 +339,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C1C502-98ED-43F8-A56E-226EAFD7AF77}" name="todo__3" displayName="todo__3" ref="A1:F30" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F30" xr:uid="{B0C1C502-98ED-43F8-A56E-226EAFD7AF77}"/>
+  <autoFilter ref="A1:F30" xr:uid="{B0C1C502-98ED-43F8-A56E-226EAFD7AF77}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="rariana"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3FFDA481-A524-4DB3-94AC-F4BB4B2F1D12}" uniqueName="1" name="Catégorie" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{EF7AAB92-CD64-40C9-B6C4-093E5A70BB0A}" uniqueName="2" name="Tâche" queryTableFieldId="2" dataDxfId="4"/>
@@ -622,25 +624,25 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -649,559 +651,543 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="E30" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,31 +1205,31 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/todo.xlsx
+++ b/todo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\Mr Rojo\cloud\projet-cloud\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\26132\Documents\projet-cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5E1986-FBAF-4A48-BFC8-A3012511E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="todo" sheetId="4" r:id="rId1"/>
@@ -29,21 +28,21 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{A7FFA614-C52E-4235-862B-740F01A39BF5}" keepAlive="1" name="Requête - todo" description="Connexion à la requête « todo » dans le classeur." type="5" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Requête - todo" description="Connexion à la requête « todo » dans le classeur." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=todo;Extended Properties=&quot;&quot;" command="SELECT * FROM [todo]"/>
   </connection>
-  <connection id="2" xr16:uid="{A8073F6F-74C0-49D3-A955-F5BDC4479E57}" keepAlive="1" name="Requête - todo (2)" description="Connexion à la requête « todo (2) » dans le classeur." type="5" refreshedVersion="0" background="1">
+  <connection id="2" keepAlive="1" name="Requête - todo (2)" description="Connexion à la requête « todo (2) » dans le classeur." type="5" refreshedVersion="0" background="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;todo (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [todo (2)]"/>
   </connection>
-  <connection id="3" xr16:uid="{49A5E763-028F-4841-9D09-A4A154C19AA9}" keepAlive="1" name="Requête - todo (3)" description="Connexion à la requête « todo (3) » dans le classeur." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="3" keepAlive="1" name="Requête - todo (3)" description="Connexion à la requête « todo (3) » dans le classeur." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;todo (3)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [todo (3)]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="60">
   <si>
     <t>Statut</t>
   </si>
@@ -220,12 +219,15 @@
   </si>
   <si>
     <t>Dependance</t>
+  </si>
+  <si>
+    <t>effectue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +320,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="3" xr16:uid="{A7893A79-A15C-4F63-B7D1-10A1D952CD7F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="10" unboundColumnsRight="1">
     <queryTableFields count="6">
       <queryTableField id="1" name="Catégorie" tableColumnId="1"/>
@@ -338,21 +340,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B0C1C502-98ED-43F8-A56E-226EAFD7AF77}" name="todo__3" displayName="todo__3" ref="A1:F30" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F30" xr:uid="{B0C1C502-98ED-43F8-A56E-226EAFD7AF77}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="todo__3" displayName="todo__3" ref="A1:F30" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F30">
     <filterColumn colId="3">
       <filters>
+        <filter val="joanne"/>
         <filter val="rariana"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3FFDA481-A524-4DB3-94AC-F4BB4B2F1D12}" uniqueName="1" name="Catégorie" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{EF7AAB92-CD64-40C9-B6C4-093E5A70BB0A}" uniqueName="2" name="Tâche" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{61C6DCBB-8ADE-408B-B394-6290EAF7EA2A}" uniqueName="3" name="Statut" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{093E3478-193C-47B1-BCB9-98932E149DAA}" uniqueName="4" name="Responsable" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{C21E6CAA-31B3-4F18-8B99-C7FE9F5B9389}" uniqueName="5" name="Priorité" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{54D401CD-FDE5-4C65-B3E4-B2211C126C50}" uniqueName="9" name="Dependance" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Catégorie" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="Tâche" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="3" uniqueName="3" name="Statut" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Responsable" queryTableFieldId="4" dataDxfId="2"/>
+    <tableColumn id="5" uniqueName="5" name="Priorité" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="9" uniqueName="9" name="Dependance" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,11 +623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF583CA-C1D8-4BEA-8110-917A2680C0D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -813,7 +816,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
@@ -902,7 +905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -962,7 +965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1198,7 +1201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785741D7-B8A3-4461-B5E7-1942C141EB8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
